--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28F1BFD-62B2-47BF-A873-B383BC94DD82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291CBCC8-8894-49A5-A3F4-E05F95A39357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="9" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="68">
   <si>
     <t>Color Codes</t>
   </si>
@@ -216,6 +217,21 @@
   </si>
   <si>
     <t>P405D</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>Pro32xBB</t>
+  </si>
+  <si>
+    <t>MX1000</t>
+  </si>
+  <si>
+    <t>P115SCH</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2667/T2669/T2670</t>
   </si>
 </sst>
 </file>
@@ -348,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -386,6 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -395,7 +412,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,7 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -702,13 +719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -740,7 +757,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>60</v>
       </c>
       <c r="C4" s="5"/>
@@ -1062,13 +1079,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1389,6 +1406,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1397,7 +1415,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,13 +1438,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1458,7 +1476,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="17" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="5"/>
@@ -1747,5 +1765,367 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B262696-C967-4AFB-8C92-5B92FA0C0CF4}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291CBCC8-8894-49A5-A3F4-E05F95A39357}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7579D358-9367-448E-9775-448D21CCA301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
     <sheet name="Belgium" sheetId="7" r:id="rId2"/>
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="69">
   <si>
     <t>Color Codes</t>
   </si>
@@ -232,6 +233,9 @@
   </si>
   <si>
     <t>NGC-3476/T2667/T2669/T2670</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2500</t>
   </si>
 </sst>
 </file>
@@ -403,6 +407,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -412,7 +417,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,13 +723,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1079,13 +1083,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1438,13 +1442,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -1773,7 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B262696-C967-4AFB-8C92-5B92FA0C0CF4}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1797,19 +1801,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="5"/>
@@ -1837,7 +1841,7 @@
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C4" s="5"/>
@@ -2059,6 +2063,370 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>66</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF92926-3DAE-47D9-883A-333F9313C6F0}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>14</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7579D358-9367-448E-9775-448D21CCA301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD02C5A-334C-453C-8A25-FDBD0B7684BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="8" r:id="rId3"/>
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="70">
   <si>
     <t>Color Codes</t>
   </si>
@@ -236,6 +237,9 @@
   </si>
   <si>
     <t>NGC-3479/T2500</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3242/T3241/T3243</t>
   </si>
 </sst>
 </file>
@@ -2138,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF92926-3DAE-47D9-883A-333F9313C6F0}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,4 +2500,368 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61498C-48A6-4B6B-96F8-D2A6D44C3CEB}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD02C5A-334C-453C-8A25-FDBD0B7684BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14A7A4-C0FC-4D86-8EC5-59353C844F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="9" r:id="rId4"/>
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
+    <sheet name="Italy" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="71">
   <si>
     <t>Color Codes</t>
   </si>
@@ -240,6 +241,9 @@
   </si>
   <si>
     <t>NGC-2930/T3242/T3241/T3243</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2257/T2258/T2256</t>
   </si>
 </sst>
 </file>
@@ -703,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection sqref="A1:U10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,7 +2510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F61498C-48A6-4B6B-96F8-D2A6D44C3CEB}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2864,4 +2868,363 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D65F9D-EB8F-45E8-AFE4-DCABA4E18B5A}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F14A7A4-C0FC-4D86-8EC5-59353C844F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EAA63-3AC7-4ED8-B10F-A4313A47B9E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="10" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
+    <sheet name="Spain" sheetId="13" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="72">
   <si>
     <t>Color Codes</t>
   </si>
@@ -244,6 +245,9 @@
   </si>
   <si>
     <t>NGC-3145/T2257/T2258/T2256</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2074/T2075/T2076</t>
   </si>
 </sst>
 </file>
@@ -2874,8 +2878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D65F9D-EB8F-45E8-AFE4-DCABA4E18B5A}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection sqref="A1:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3227,4 +3231,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3770FF-A81F-40E1-BC96-D7D80D20CFD3}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91EAA63-3AC7-4ED8-B10F-A4313A47B9E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBE9C6-9A48-4057-AF94-CBDFDBEB3A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="11" r:id="rId6"/>
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="73">
   <si>
     <t>Color Codes</t>
   </si>
@@ -248,6 +249,9 @@
   </si>
   <si>
     <t>NGC-3103/T2074/T2075/T2076</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3331/T3332/T3330</t>
   </si>
 </sst>
 </file>
@@ -3237,8 +3241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3770FF-A81F-40E1-BC96-D7D80D20CFD3}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3578,4 +3582,285 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F53F6-56AE-402E-A3E7-B259EEB2C7D1}">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBE9C6-9A48-4057-AF94-CBDFDBEB3A28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98570BF7-71CB-48D5-B85E-8AEC499E3B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4452" yWindow="2484" windowWidth="17280" windowHeight="8880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="12" r:id="rId7"/>
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="75">
   <si>
     <t>Color Codes</t>
   </si>
@@ -252,6 +253,12 @@
   </si>
   <si>
     <t>NGC-3191/T3331/T3332/T3330</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2519</t>
+  </si>
+  <si>
+    <t>P805D</t>
   </si>
 </sst>
 </file>
@@ -1071,6 +1078,370 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F0FBA4-7685-4B50-8378-1108EB144B0C}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6218FED-08BA-47AE-9670-62CD3AFE82C3}">
   <dimension ref="A1:U10"/>
@@ -2519,7 +2890,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3588,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E35F53F6-56AE-402E-A3E7-B259EEB2C7D1}">
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98570BF7-71CB-48D5-B85E-8AEC499E3B60}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDB50B3-A4E1-4CEE-B78C-B5FF0F751C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4452" yWindow="2484" windowWidth="17280" windowHeight="8880" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="13" r:id="rId8"/>
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
+    <sheet name="Greece" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="76">
   <si>
     <t>Color Codes</t>
   </si>
@@ -259,6 +260,9 @@
   </si>
   <si>
     <t>P805D</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3199</t>
   </si>
 </sst>
 </file>
@@ -1082,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F0FBA4-7685-4B50-8378-1108EB144B0C}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,6 +1155,370 @@
       </c>
       <c r="B4" t="s">
         <v>73</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA01D551-01FC-4316-8DD5-5BA367B99242}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDB50B3-A4E1-4CEE-B78C-B5FF0F751C0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A59E3-CA94-4742-A194-D1EA0367C8A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="14" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
     <sheet name="Greece" sheetId="17" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
+    <sheet name="Austria" sheetId="19" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="83">
   <si>
     <t>Color Codes</t>
   </si>
@@ -263,6 +266,27 @@
   </si>
   <si>
     <t>NGC-4119/T3199</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2213/T2216</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2808</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>MZX254S</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2808</t>
+  </si>
+  <si>
+    <t>Denmark</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA01D551-01FC-4316-8DD5-5BA367B99242}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1775,6 +1799,1088 @@
       </c>
       <c r="M10" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{402577A6-92AD-4D46-A278-BA0F35FEB2F6}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6236C8F-30FF-4725-81D3-278CBAE46F16}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC510D-51F9-43D9-85E6-FAE45C0CD296}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="N10" s="16" t="s">
         <v>19</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7A59E3-CA94-4742-A194-D1EA0367C8A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6CDBF-7FC8-48EE-B547-059C9AB3CE15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -274,9 +274,6 @@
     <t>Netherlands</t>
   </si>
   <si>
-    <t>NGC-3817/T2808</t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -287,6 +284,9 @@
   </si>
   <si>
     <t>Denmark</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2361/T2363/T2364</t>
   </si>
 </sst>
 </file>
@@ -2199,6 +2199,366 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6236C8F-30FF-4725-81D3-278CBAE46F16}">
   <dimension ref="A1:U10"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC510D-51F9-43D9-85E6-FAE45C0CD296}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
@@ -2236,367 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>250</v>
-      </c>
-      <c r="R8" s="14">
-        <v>4000</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>250</v>
-      </c>
-      <c r="R9" s="14">
-        <v>2200</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>250</v>
-      </c>
-      <c r="R10" s="14">
-        <v>2200</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC510D-51F9-43D9-85E6-FAE45C0CD296}">
-  <dimension ref="A1:U10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" customWidth="1"/>
-    <col min="12" max="12" width="33.77734375" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" customWidth="1"/>
-    <col min="14" max="14" width="36.21875" customWidth="1"/>
-    <col min="15" max="15" width="35.6640625" customWidth="1"/>
-    <col min="16" max="16" width="36.5546875" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="11" t="s">
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6CDBF-7FC8-48EE-B547-059C9AB3CE15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379AF0C2-B897-4A8D-BC67-AD0088CF7A22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -268,9 +268,6 @@
     <t>NGC-4119/T3199</t>
   </si>
   <si>
-    <t>NGC-3817/T2213/T2216</t>
-  </si>
-  <si>
     <t>Netherlands</t>
   </si>
   <si>
@@ -280,13 +277,16 @@
     <t>MZX254S</t>
   </si>
   <si>
-    <t>NGC-2913/T2808</t>
-  </si>
-  <si>
     <t>Denmark</t>
   </si>
   <si>
     <t>NGC-3817/T2361/T2363/T2364</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2213/T2215/T2216</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2806/T2807/T2808</t>
   </si>
 </sst>
 </file>
@@ -1839,7 +1839,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1875,7 +1875,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="11" t="s">
@@ -1903,7 +1903,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
@@ -2197,6 +2197,366 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6236C8F-30FF-4725-81D3-278CBAE46F16}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" customWidth="1"/>
+    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" customWidth="1"/>
+    <col min="11" max="11" width="31.6640625" customWidth="1"/>
+    <col min="12" max="12" width="33.77734375" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" customWidth="1"/>
+    <col min="14" max="14" width="36.21875" customWidth="1"/>
+    <col min="15" max="15" width="35.6640625" customWidth="1"/>
+    <col min="16" max="16" width="36.5546875" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC510D-51F9-43D9-85E6-FAE45C0CD296}">
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2236,367 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
-      <c r="E5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="14">
-        <v>250</v>
-      </c>
-      <c r="R8" s="14">
-        <v>4000</v>
-      </c>
-      <c r="S8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T8" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>250</v>
-      </c>
-      <c r="R9" s="14">
-        <v>2200</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="14">
-        <v>250</v>
-      </c>
-      <c r="R10" s="14">
-        <v>2200</v>
-      </c>
-      <c r="S10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="T10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC510D-51F9-43D9-85E6-FAE45C0CD296}">
-  <dimension ref="A1:U10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="44.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
-    <col min="10" max="10" width="23.33203125" customWidth="1"/>
-    <col min="11" max="11" width="31.6640625" customWidth="1"/>
-    <col min="12" max="12" width="33.77734375" customWidth="1"/>
-    <col min="13" max="13" width="33.33203125" customWidth="1"/>
-    <col min="14" max="14" width="36.21875" customWidth="1"/>
-    <col min="15" max="15" width="35.6640625" customWidth="1"/>
-    <col min="16" max="16" width="36.5546875" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="11" t="s">
@@ -2624,7 +2624,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="4"/>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379AF0C2-B897-4A8D-BC67-AD0088CF7A22}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7119B1C-1E72-43D6-9CEF-FF1E38A30297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
     <sheet name="Austria" sheetId="19" r:id="rId13"/>
     <sheet name="Denmark" sheetId="20" r:id="rId14"/>
+    <sheet name="Russia" sheetId="22" r:id="rId15"/>
+    <sheet name="Finland" sheetId="23" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="86">
   <si>
     <t>Color Codes</t>
   </si>
@@ -287,6 +290,15 @@
   </si>
   <si>
     <t>NGC-2913/T2806/T2807/T2808</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2074/T2075/T2076</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2962/T2963/T2964</t>
+  </si>
+  <si>
+    <t>NGC-3104/T3011/T3012/T3013</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64CC510D-51F9-43D9-85E6-FAE45C0CD296}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2780,6 +2792,1073 @@
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282EC3CB-E79F-4E7F-BE6D-668F1ABD844F}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB7751D-C581-4F2B-AC45-046EAA2B9A26}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection sqref="A1:V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EE34AC-50CD-4EFD-A59C-84E8549FA1EC}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7119B1C-1E72-43D6-9CEF-FF1E38A30297}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70390C-9762-4ADE-9372-31D21AFCDD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="22" r:id="rId15"/>
     <sheet name="Finland" sheetId="23" r:id="rId16"/>
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
+    <sheet name="Norway" sheetId="25" r:id="rId18"/>
+    <sheet name="Poland" sheetId="26" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1464" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="88">
   <si>
     <t>Color Codes</t>
   </si>
@@ -299,6 +301,12 @@
   </si>
   <si>
     <t>NGC-3104/T3011/T3012/T3013</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3094</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3128</t>
   </si>
 </sst>
 </file>
@@ -3638,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EE34AC-50CD-4EFD-A59C-84E8549FA1EC}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -3960,6 +3968,734 @@
       </c>
       <c r="M10" s="14" t="s">
         <v>48</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43728AA9-E03B-42C7-A0E2-6147CC4A000D}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0363BE-B97C-461D-A985-75E0DCD277BB}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>53</v>
       </c>
       <c r="N10" s="16" t="s">
         <v>19</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD70390C-9762-4ADE-9372-31D21AFCDD9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE0FEF-4017-4149-AD16-3C20FBACC6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -303,10 +303,10 @@
     <t>NGC-3104/T3011/T3012/T3013</t>
   </si>
   <si>
-    <t>NGC-2931/T3094</t>
-  </si>
-  <si>
-    <t>NGC-2920/T3128</t>
+    <t>NGC-2931/T3092/T3093/T3094</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3126/T3127/T3128</t>
   </si>
 </sst>
 </file>
@@ -3285,8 +3285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB7751D-C581-4F2B-AC45-046EAA2B9A26}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection sqref="A1:V10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4007,14 +4007,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43728AA9-E03B-42C7-A0E2-6147CC4A000D}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
@@ -4371,8 +4371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0363BE-B97C-461D-A985-75E0DCD277BB}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE0FEF-4017-4149-AD16-3C20FBACC6DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F533A84-BAC5-4693-BEB5-C32AD2534F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
     <sheet name="Norway" sheetId="25" r:id="rId18"/>
     <sheet name="Poland" sheetId="26" r:id="rId19"/>
+    <sheet name="UK" sheetId="27" r:id="rId20"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="90">
   <si>
     <t>Color Codes</t>
   </si>
@@ -307,6 +308,12 @@
   </si>
   <si>
     <t>NGC-2920/T3126/T3127/T3128</t>
+  </si>
+  <si>
+    <t>Pro885D</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3375</t>
   </si>
 </sst>
 </file>
@@ -4371,7 +4378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE0363BE-B97C-461D-A985-75E0DCD277BB}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5055,6 +5062,370 @@
       </c>
       <c r="M10" s="14" t="s">
         <v>53</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>250</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA58AD-99D8-4480-B81E-95DDC222A44C}">
+  <dimension ref="A1:U10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="28.33203125" customWidth="1"/>
+    <col min="13" max="13" width="25.33203125" customWidth="1"/>
+    <col min="14" max="14" width="22.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="19.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="17.6640625" customWidth="1"/>
+    <col min="21" max="21" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+      <c r="E5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>250</v>
+      </c>
+      <c r="R8" s="14">
+        <v>4000</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U8" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>250</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2200</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>48</v>
       </c>
       <c r="N10" s="16" t="s">
         <v>19</v>

--- a/Test Data/Power_Calculation_Max_Values.xlsx
+++ b/Test Data/Power_Calculation_Max_Values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F533A84-BAC5-4693-BEB5-C32AD2534F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F4A2ACE-05F0-4604-934D-DE625CFFBFA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="6" r:id="rId1"/>
@@ -3292,8 +3292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB7751D-C581-4F2B-AC45-046EAA2B9A26}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>14</v>
@@ -5101,7 +5101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42AA58AD-99D8-4480-B81E-95DDC222A44C}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
